--- a/MechanicalDesigns/Moment of Inertia.xlsx
+++ b/MechanicalDesigns/Moment of Inertia.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Type</t>
   </si>
@@ -47,13 +47,22 @@
   </si>
   <si>
     <t>Mass (Kg)</t>
+  </si>
+  <si>
+    <t>Friction(u*N)</t>
+  </si>
+  <si>
+    <t>Force due to gravity(mg) [N]</t>
+  </si>
+  <si>
+    <t>Resultant force (mg*sin(45)) [N]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -129,6 +138,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -189,7 +199,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,10 +231,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,7 +265,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -432,23 +440,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -464,8 +475,17 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -484,7 +504,7 @@
         <v>11.32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -503,7 +523,7 @@
         <v>1.2218156000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -522,7 +542,7 @@
         <v>0.63600000000000012</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -541,7 +561,7 @@
         <v>5.0049999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -560,7 +580,7 @@
         <v>3.3091949900000004</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>

--- a/MechanicalDesigns/Moment of Inertia.xlsx
+++ b/MechanicalDesigns/Moment of Inertia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Type</t>
   </si>
@@ -49,13 +49,7 @@
     <t>Mass (Kg)</t>
   </si>
   <si>
-    <t>Friction(u*N)</t>
-  </si>
-  <si>
-    <t>Force due to gravity(mg) [N]</t>
-  </si>
-  <si>
-    <t>Resultant force (mg*sin(45)) [N]</t>
+    <t>I total (kg*m^2)</t>
   </si>
 </sst>
 </file>
@@ -103,7 +97,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -126,19 +120,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -454,16 +458,14 @@
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -476,127 +478,151 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="1">
         <v>1.0999999999999999</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>0.32</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <f>B2*1000*0.1^2</f>
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <f>C2+D2</f>
         <v>11.32</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
+      <c r="F2" s="5">
+        <f>E2*0.001</f>
+        <v>1.132E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="1">
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>0.32181559999999998</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <f t="shared" ref="D3:D7" si="0">B3*1000*0.1^2</f>
         <v>0.90000000000000036</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <f t="shared" ref="E3:E7" si="1">C3+D3</f>
         <v>1.2218156000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75">
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F7" si="2">E3*0.001</f>
+        <v>1.2218156000000002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="1">
         <v>3.2600000000000004E-2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>0.31</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <f t="shared" si="0"/>
         <v>0.32600000000000007</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <f t="shared" si="1"/>
         <v>0.63600000000000012</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75">
+      <c r="F4" s="5">
+        <f>E4*0.001</f>
+        <v>6.3600000000000017E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="1">
         <v>0.46649999999999997</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>0.34</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <f t="shared" si="0"/>
         <v>4.665</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <f t="shared" si="1"/>
         <v>5.0049999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75">
+      <c r="F5" s="5">
+        <f t="shared" si="2"/>
+        <v>5.0049999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="1">
         <v>0.3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>0.30919499</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <f t="shared" si="1"/>
         <v>3.3091949900000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75">
+      <c r="F6" s="5">
+        <f t="shared" si="2"/>
+        <v>3.3091949900000005E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="1">
         <v>1.3599999999999999</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>0.33</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>13.6</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <f t="shared" si="1"/>
         <v>13.93</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="2"/>
+        <v>1.393E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="F8" s="6">
+        <f xml:space="preserve"> SUM(F2:F7)/6</f>
+        <v>5.9036684316666659E-3</v>
       </c>
     </row>
   </sheetData>
